--- a/docs/Dokumentation/Gantt.xlsx
+++ b/docs/Dokumentation/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Berufsschule\AE\Klausur 3\fancyYooloo\docs\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gahlen\Desktop\fancyYooloo\docs\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{404EBF2E-3115-4744-AA7A-418B7930EFC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F87E280-FAF2-419B-B6B9-896DF7E8980E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44382191-1362-4756-B955-D6AE83BC2ACF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{44382191-1362-4756-B955-D6AE83BC2ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -222,23 +222,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,7 +706,7 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="10"/>
@@ -715,35 +715,35 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="9"/>
@@ -754,35 +754,35 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="3"/>
@@ -798,35 +798,35 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -836,35 +836,35 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9"/>
@@ -880,7 +880,7 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="9"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -895,12 +895,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:Z2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
